--- a/biology/Zoologie/Achlyodidini/Achlyodidini.xlsx
+++ b/biology/Zoologie/Achlyodidini/Achlyodidini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Achlyodidini sont une tribu de lépidoptères de la famille des Hesperiidae et de la sous-famille des Pyrginae.
-Les espèces de cette tribu sont présentes uniquement sur le continent américain, avec la diversité la plus grande dans l'écozone néotropicale[1]. 
+Les espèces de cette tribu sont présentes uniquement sur le continent américain, avec la diversité la plus grande dans l'écozone néotropicale. 
 Beaucoup se caractérisent par leurs couleurs voyantes (pour des Hesperiidae) et par la forme particulière de leurs ailes antérieures, dont les extrémités semblent comme tronquées. 
 </t>
         </is>
@@ -513,18 +525,20 @@
           <t>Listes des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Achlyodes Hübner, [1819]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Achlyodes Hübner, 
 Aethilla Hewitson, 1868
 Doberes Godman &amp; Salvin, 1895
 Eantis Boisduval, 1836
 Atarnes Godman &amp; Salvin, 1897
 Charidia Mabille, 1903
-Paramimus Hübner, [1819]
+Paramimus Hübner, 
 Milanion Godman &amp; Salvin, 1895
 Haemactis Mabille, 1903
-Pythonides Hübner, [1819]
+Pythonides Hübner, 
 Quadrus Lindsey, 1925
 Gindanes Godman &amp; Salvin, 1895
 Ouleus Lindsey, 1925
@@ -556,10 +570,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Achlyodidini est composée de genres autrefois souvent inclus dans la tribu des Pyrgini. 
-Elle a été définie à la fin des années 2000 dans le cadre d'une révision de la classification interne de la famille des Hesperiidae fondée sur des caractères morphologiques et moléculaires[2],[3].
+Elle a été définie à la fin des années 2000 dans le cadre d'une révision de la classification interne de la famille des Hesperiidae fondée sur des caractères morphologiques et moléculaires,.
 Dans cette nouvelle classification, Achlyodidini est l'une des sept tribus de la sous-famille des Pyrginae, et la plus étroitement apparentée aux Pyrgini sensu stricto.
 Sur les autres projets Wikimedia :
 Achlyodidini, sur Wikimedia CommonsAchlyodidini, sur Wikispecies
